--- a/1.原创-应用安全/安全检查问卷/安全检查表.xlsx
+++ b/1.原创-应用安全/安全检查问卷/安全检查表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -35,18 +35,14 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">                                                             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检查内容</t>
-    </r>
+      <t xml:space="preserve">                                                           </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  检查内容</t>
+  </si>
+  <si>
+    <t>输入</t>
   </si>
   <si>
     <r>
@@ -288,9 +284,6 @@
     </r>
   </si>
   <si>
-    <t>输入</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1393,6 +1386,9 @@
     </r>
   </si>
   <si>
+    <t>日志审计</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1420,9 +1416,6 @@
       </rPr>
       <t>？</t>
     </r>
-  </si>
-  <si>
-    <t>日志审计</t>
   </si>
   <si>
     <r>
@@ -1480,15 +1473,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2165,38 +2158,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -2553,7 +2549,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -2566,12 +2562,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" ht="160" customHeight="1" spans="1:2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.75" spans="1:2">
@@ -2581,236 +2581,235 @@
     <row r="4" ht="29.75" spans="1:2">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:2">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="29.75" spans="1:2">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="29.75" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" hidden="1" spans="1:2">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="1:2">
+      <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="14.75"/>
     <row r="12" ht="29.75" spans="1:2">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:2">
       <c r="A14" s="8"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:2">
       <c r="A15" s="9"/>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:2">
       <c r="A16" s="9"/>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:2">
       <c r="A17" s="9"/>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:2">
       <c r="A18" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:2">
       <c r="A19" s="9"/>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:2">
       <c r="A20" s="9"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:2">
       <c r="A21" s="9"/>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:2">
       <c r="A22" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:2">
       <c r="A23" s="9"/>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:2">
       <c r="A24" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:2">
       <c r="A25" s="9"/>
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:2">
       <c r="A26" s="9"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:2">
       <c r="A27" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:2">
-      <c r="A29" s="2"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:2">
-      <c r="A30" s="2"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:2">
-      <c r="A31" s="2"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="29.75" spans="1:2">
-      <c r="A32" s="2"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="14.75"/>
     <row r="36" ht="15.25" spans="1:2">
-      <c r="A36" s="11"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" ht="15.25" spans="1:2">
       <c r="A37" s="9"/>
       <c r="B37" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="1:2">
       <c r="A38" s="9"/>
       <c r="B38" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="1:2">
       <c r="A39" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="15.25" spans="1:2">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="B40" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="15.25" spans="1:2">
-      <c r="A41" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A41" s="6"/>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
